--- a/BareMetal/AGC Instruction Set.xlsx
+++ b/BareMetal/AGC Instruction Set.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lenaku/Desktop/Coding/ApolloGC/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lenaku/Desktop/Coding/ApolloGC/AGC-code/BareMetal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD87958-ED2E-7E4C-9177-59F6B7D67079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5854D58-5EAB-C741-891E-BE2E7893F1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{80C3D148-E090-A946-8FE9-3649D1D23C69}"/>
   </bookViews>
@@ -38,20 +38,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C9B4E49A-AEE8-B447-B695-9A530AFB00E6}</author>
     <author>tc={4FE5A188-1C70-954E-868D-19370CAA8D80}</author>
     <author>tc={B98F79D4-6538-6C49-9BC6-0EA57AB749E4}</author>
   </authors>
   <commentList>
-    <comment ref="A194" authorId="0" shapeId="0" xr:uid="{C9B4E49A-AEE8-B447-B695-9A530AFB00E6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Try</t>
-      </text>
-    </comment>
-    <comment ref="A241" authorId="1" shapeId="0" xr:uid="{4FE5A188-1C70-954E-868D-19370CAA8D80}">
+    <comment ref="A241" authorId="0" shapeId="0" xr:uid="{4FE5A188-1C70-954E-868D-19370CAA8D80}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +50,7 @@
     Try?</t>
       </text>
     </comment>
-    <comment ref="A329" authorId="2" shapeId="0" xr:uid="{B98F79D4-6538-6C49-9BC6-0EA57AB749E4}">
+    <comment ref="A329" authorId="1" shapeId="0" xr:uid="{B98F79D4-6538-6C49-9BC6-0EA57AB749E4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -4374,27 +4365,45 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <t>MASK K or MSK K;not</t>
+  </si>
+  <si>
+    <t>RETURN or TC Q; not</t>
+  </si>
+  <si>
+    <t>TC K or TCR K; not</t>
+  </si>
+  <si>
+    <t>K = address of an instruction. In assembly, only lower 9 bits are retained. However, actual value is irrelevant &amp; ignored during execution.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INDEX K </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>Index Next Instruction</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" or "</t>
+      <t xml:space="preserve"> NDX K; can EXTEND</t>
+    </r>
+  </si>
+  <si>
+    <t>Pseudo-Operations</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -4404,61 +4413,43 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>Index Extracode Instruction</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" instruction causes the next instruction to be executed in a modified way from its actual representation in memory.</t>
-    </r>
-  </si>
-  <si>
-    <t>MASK K or MSK K;not</t>
-  </si>
-  <si>
-    <t>RETURN or TC Q; not</t>
-  </si>
-  <si>
-    <t>TC K or TCR K; not</t>
-  </si>
-  <si>
-    <t>K = address of an instruction. In assembly, only lower 9 bits are retained. However, actual value is irrelevant &amp; ignored during execution.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">INDEX K </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Index Next Instruction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" or "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> NDX K; can EXTEND</t>
-    </r>
-  </si>
-  <si>
-    <t>Pseudo-Operations</t>
+      <t>Index Extracode Instruction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" instruction causes the next instruction to be executed in a modified way from its actual representation in memory. Next instruction </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4627,12 +4618,6 @@
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4765,18 +4750,6 @@
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4791,6 +4764,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5139,9 +5124,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A194" dT="2024-05-25T13:44:01.39" personId="{E502A173-FFF6-FA4B-91CC-FDAF45C512BF}" id="{C9B4E49A-AEE8-B447-B695-9A530AFB00E6}">
-    <text>Try</text>
-  </threadedComment>
   <threadedComment ref="A241" dT="2024-05-25T13:44:43.32" personId="{E502A173-FFF6-FA4B-91CC-FDAF45C512BF}" id="{4FE5A188-1C70-954E-868D-19370CAA8D80}">
     <text>Try?</text>
   </threadedComment>
@@ -5156,8 +5138,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -5171,10 +5153,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="32">
       <c r="A2" s="2"/>
@@ -5220,7 +5202,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" outlineLevel="1">
+    <row r="6" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -5228,8 +5210,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="52" outlineLevel="1">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:5" ht="52" hidden="1" outlineLevel="1">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -5239,8 +5221,8 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="36" outlineLevel="1">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:5" ht="36" hidden="1" outlineLevel="1">
+      <c r="A8" s="33"/>
       <c r="B8" s="6" t="s">
         <v>413</v>
       </c>
@@ -5248,8 +5230,8 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A9" s="29"/>
+    <row r="9" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A9" s="33"/>
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
@@ -5257,8 +5239,8 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" ht="18" outlineLevel="1">
-      <c r="A10" s="29"/>
+    <row r="10" spans="1:5" ht="18" hidden="1" outlineLevel="1">
+      <c r="A10" s="33"/>
       <c r="B10" s="6" t="s">
         <v>414</v>
       </c>
@@ -5266,7 +5248,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1"/>
+    <row r="11" spans="1:5" s="4" customFormat="1" collapsed="1"/>
     <row r="12" spans="1:5" ht="35">
       <c r="A12" s="5" t="s">
         <v>11</v>
@@ -5301,7 +5283,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" outlineLevel="1">
+    <row r="14" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -5311,8 +5293,8 @@
       <c r="C14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A15" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -5322,8 +5304,8 @@
       <c r="D15" s="10"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A16" s="27"/>
+    <row r="16" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A16" s="32"/>
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
@@ -5331,8 +5313,8 @@
       <c r="D16" s="10"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A17" s="27"/>
+    <row r="17" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A17" s="32"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
@@ -5340,7 +5322,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1">
+    <row r="18" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="E18" s="17"/>
@@ -5379,7 +5361,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" outlineLevel="1">
+    <row r="21" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A21" s="7" t="s">
         <v>7</v>
       </c>
@@ -5389,8 +5371,8 @@
       <c r="C21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A22" s="27" t="s">
+    <row r="22" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A22" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -5400,8 +5382,8 @@
       <c r="D22" s="11"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A23" s="32"/>
       <c r="B23" s="19" t="s">
         <v>262</v>
       </c>
@@ -5409,8 +5391,8 @@
       <c r="D23" s="12"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" ht="119" outlineLevel="1">
-      <c r="A24" s="27"/>
+    <row r="24" spans="1:5" ht="119" hidden="1" outlineLevel="1">
+      <c r="A24" s="32"/>
       <c r="B24" s="19" t="s">
         <v>263</v>
       </c>
@@ -5418,7 +5400,7 @@
       <c r="D24" s="12"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1">
+    <row r="25" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="E25" s="17"/>
@@ -5457,7 +5439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" outlineLevel="1">
+    <row r="28" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
@@ -5467,8 +5449,8 @@
       <c r="C28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A29" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -5478,8 +5460,8 @@
       <c r="D29" s="10"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A30" s="27"/>
+    <row r="30" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A30" s="32"/>
       <c r="B30" s="6" t="s">
         <v>266</v>
       </c>
@@ -5487,8 +5469,8 @@
       <c r="D30" s="10"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A31" s="27"/>
+    <row r="31" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A31" s="32"/>
       <c r="B31" s="6" t="s">
         <v>267</v>
       </c>
@@ -5496,8 +5478,8 @@
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A32" s="27"/>
+    <row r="32" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A32" s="32"/>
       <c r="B32" s="20" t="s">
         <v>268</v>
       </c>
@@ -5505,7 +5487,7 @@
       <c r="D32" s="13"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1">
+    <row r="33" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="E33" s="17"/>
@@ -5544,7 +5526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18" outlineLevel="1">
+    <row r="36" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A36" s="7" t="s">
         <v>7</v>
       </c>
@@ -5554,8 +5536,8 @@
       <c r="C36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A37" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -5565,8 +5547,8 @@
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A38" s="27"/>
+    <row r="38" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A38" s="32"/>
       <c r="B38" s="6" t="s">
         <v>270</v>
       </c>
@@ -5574,8 +5556,8 @@
       <c r="D38" s="10"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A39" s="27"/>
+    <row r="39" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A39" s="32"/>
       <c r="B39" s="6" t="s">
         <v>267</v>
       </c>
@@ -5583,8 +5565,8 @@
       <c r="D39" s="10"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A40" s="27"/>
+    <row r="40" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A40" s="32"/>
       <c r="B40" s="20" t="s">
         <v>271</v>
       </c>
@@ -5592,7 +5574,7 @@
       <c r="D40" s="13"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="1:5" s="4" customFormat="1">
+    <row r="41" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="E41" s="17"/>
@@ -5615,13 +5597,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="32" customHeight="1">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="35" t="s">
         <v>432</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -5632,22 +5614,22 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18">
-      <c r="A44" s="27"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="30"/>
+      <c r="C44" s="35"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="18">
-      <c r="A45" s="27"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="30"/>
+      <c r="C45" s="35"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" ht="18" outlineLevel="1">
+    <row r="46" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A46" s="7" t="s">
         <v>7</v>
       </c>
@@ -5657,8 +5639,8 @@
       <c r="C46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A47" s="27" t="s">
+    <row r="47" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A47" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -5668,8 +5650,8 @@
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A48" s="27"/>
+    <row r="48" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A48" s="32"/>
       <c r="B48" s="18" t="s">
         <v>29</v>
       </c>
@@ -5677,8 +5659,8 @@
       <c r="D48" s="11"/>
       <c r="E48" s="18"/>
     </row>
-    <row r="49" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A49" s="27"/>
+    <row r="49" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A49" s="32"/>
       <c r="B49" s="6" t="s">
         <v>273</v>
       </c>
@@ -5686,13 +5668,13 @@
       <c r="D49" s="10"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" s="4" customFormat="1">
+    <row r="50" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="E50" s="17"/>
     </row>
     <row r="51" spans="1:5" ht="52" customHeight="1">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -5725,7 +5707,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18" outlineLevel="1">
+    <row r="53" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A53" s="7" t="s">
         <v>7</v>
       </c>
@@ -5735,8 +5717,8 @@
       <c r="C53" s="6"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A54" s="27" t="s">
+    <row r="54" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A54" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -5746,8 +5728,8 @@
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A55" s="27"/>
+    <row r="55" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A55" s="32"/>
       <c r="B55" s="6" t="s">
         <v>274</v>
       </c>
@@ -5755,8 +5737,8 @@
       <c r="D55" s="14"/>
       <c r="E55" s="22"/>
     </row>
-    <row r="56" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A56" s="27"/>
+    <row r="56" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A56" s="32"/>
       <c r="B56" s="6" t="s">
         <v>275</v>
       </c>
@@ -5764,8 +5746,8 @@
       <c r="D56" s="14"/>
       <c r="E56" s="22"/>
     </row>
-    <row r="57" spans="1:5" ht="145" outlineLevel="1">
-      <c r="A57" s="27"/>
+    <row r="57" spans="1:5" ht="145" hidden="1" outlineLevel="1">
+      <c r="A57" s="32"/>
       <c r="B57" s="6" t="s">
         <v>276</v>
       </c>
@@ -5773,8 +5755,8 @@
       <c r="D57" s="14"/>
       <c r="E57" s="22"/>
     </row>
-    <row r="58" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A58" s="27"/>
+    <row r="58" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A58" s="32"/>
       <c r="B58" s="6" t="s">
         <v>277</v>
       </c>
@@ -5782,8 +5764,8 @@
       <c r="D58" s="14"/>
       <c r="E58" s="22"/>
     </row>
-    <row r="59" spans="1:5" ht="136" outlineLevel="1">
-      <c r="A59" s="27"/>
+    <row r="59" spans="1:5" ht="136" hidden="1" outlineLevel="1">
+      <c r="A59" s="32"/>
       <c r="B59" s="6" t="s">
         <v>278</v>
       </c>
@@ -5791,7 +5773,7 @@
       <c r="D59" s="14"/>
       <c r="E59" s="22"/>
     </row>
-    <row r="60" spans="1:5" s="4" customFormat="1">
+    <row r="60" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="E60" s="17"/>
@@ -5830,7 +5812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17" outlineLevel="1">
+    <row r="63" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A63" s="7" t="s">
         <v>7</v>
       </c>
@@ -5840,8 +5822,8 @@
       <c r="C63" s="6"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A64" s="27" t="s">
+    <row r="64" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A64" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -5851,8 +5833,8 @@
       <c r="D64" s="10"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A65" s="27"/>
+    <row r="65" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A65" s="32"/>
       <c r="B65" s="6" t="s">
         <v>279</v>
       </c>
@@ -5860,7 +5842,7 @@
       <c r="D65" s="10"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" s="4" customFormat="1">
+    <row r="66" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="E66" s="17"/>
@@ -5899,7 +5881,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18" outlineLevel="1">
+    <row r="69" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A69" s="7" t="s">
         <v>7</v>
       </c>
@@ -5909,8 +5891,8 @@
       <c r="C69" s="6"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A70" s="27" t="s">
+    <row r="70" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A70" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -5920,8 +5902,8 @@
       <c r="D70" s="10"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" ht="102" outlineLevel="1">
-      <c r="A71" s="27"/>
+    <row r="71" spans="1:5" ht="102" hidden="1" outlineLevel="1">
+      <c r="A71" s="32"/>
       <c r="B71" s="18" t="s">
         <v>41</v>
       </c>
@@ -5929,8 +5911,8 @@
       <c r="D71" s="11"/>
       <c r="E71" s="18"/>
     </row>
-    <row r="72" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A72" s="27"/>
+    <row r="72" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A72" s="32"/>
       <c r="B72" s="6" t="s">
         <v>281</v>
       </c>
@@ -5938,7 +5920,7 @@
       <c r="D72" s="10"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" s="4" customFormat="1">
+    <row r="73" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="E73" s="17"/>
@@ -5977,7 +5959,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18" outlineLevel="1">
+    <row r="76" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A76" s="7" t="s">
         <v>7</v>
       </c>
@@ -5987,8 +5969,8 @@
       <c r="C76" s="6"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A77" s="27" t="s">
+    <row r="77" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A77" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -5997,55 +5979,55 @@
       <c r="C77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A78" s="27"/>
+    <row r="78" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A78" s="32"/>
       <c r="B78" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="24"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A79" s="27"/>
+    <row r="79" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A79" s="32"/>
       <c r="B79" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C79" s="18"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A80" s="27"/>
+    <row r="80" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A80" s="32"/>
       <c r="B80" s="6" t="s">
         <v>283</v>
       </c>
       <c r="C80" s="6"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A81" s="27"/>
+    <row r="81" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A81" s="32"/>
       <c r="B81" s="6" t="s">
         <v>284</v>
       </c>
       <c r="C81" s="6"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A82" s="27"/>
+    <row r="82" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A82" s="32"/>
       <c r="B82" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="6"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A83" s="27"/>
+    <row r="83" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A83" s="32"/>
       <c r="B83" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C83" s="6"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" s="4" customFormat="1">
+    <row r="84" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="E84" s="17"/>
@@ -6084,7 +6066,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="18" outlineLevel="1">
+    <row r="87" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A87" s="7" t="s">
         <v>7</v>
       </c>
@@ -6094,8 +6076,8 @@
       <c r="C87" s="6"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A88" s="27" t="s">
+    <row r="88" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A88" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -6105,8 +6087,8 @@
       <c r="D88" s="10"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A89" s="27"/>
+    <row r="89" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A89" s="32"/>
       <c r="B89" s="6" t="s">
         <v>286</v>
       </c>
@@ -6114,8 +6096,8 @@
       <c r="D89" s="10"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A90" s="27"/>
+    <row r="90" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A90" s="32"/>
       <c r="B90" s="18" t="s">
         <v>287</v>
       </c>
@@ -6123,8 +6105,8 @@
       <c r="D90" s="11"/>
       <c r="E90" s="18"/>
     </row>
-    <row r="91" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A91" s="27"/>
+    <row r="91" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A91" s="32"/>
       <c r="B91" s="6" t="s">
         <v>288</v>
       </c>
@@ -6132,7 +6114,7 @@
       <c r="D91" s="10"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:5" s="4" customFormat="1">
+    <row r="92" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="E92" s="17"/>
@@ -6171,7 +6153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" outlineLevel="1">
+    <row r="95" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A95" s="7" t="s">
         <v>7</v>
       </c>
@@ -6181,8 +6163,8 @@
       <c r="C95" s="6"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A96" s="27" t="s">
+    <row r="96" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A96" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -6192,8 +6174,8 @@
       <c r="D96" s="10"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A97" s="27"/>
+    <row r="97" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A97" s="32"/>
       <c r="B97" s="6" t="s">
         <v>289</v>
       </c>
@@ -6201,7 +6183,7 @@
       <c r="D97" s="10"/>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="1:5" s="4" customFormat="1">
+    <row r="98" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="E98" s="17"/>
@@ -6240,7 +6222,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="18" outlineLevel="1">
+    <row r="101" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A101" s="7" t="s">
         <v>7</v>
       </c>
@@ -6250,8 +6232,8 @@
       <c r="C101" s="6"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A102" s="27" t="s">
+    <row r="102" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A102" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -6261,8 +6243,8 @@
       <c r="D102" s="10"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A103" s="27"/>
+    <row r="103" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A103" s="32"/>
       <c r="B103" s="6" t="s">
         <v>291</v>
       </c>
@@ -6270,8 +6252,8 @@
       <c r="D103" s="10"/>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A104" s="27"/>
+    <row r="104" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A104" s="32"/>
       <c r="B104" s="6" t="s">
         <v>292</v>
       </c>
@@ -6279,8 +6261,8 @@
       <c r="D104" s="10"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" ht="102" outlineLevel="1">
-      <c r="A105" s="27"/>
+    <row r="105" spans="1:5" ht="102" hidden="1" outlineLevel="1">
+      <c r="A105" s="32"/>
       <c r="B105" s="18" t="s">
         <v>293</v>
       </c>
@@ -6288,8 +6270,8 @@
       <c r="D105" s="11"/>
       <c r="E105" s="18"/>
     </row>
-    <row r="106" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A106" s="27"/>
+    <row r="106" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A106" s="32"/>
       <c r="B106" s="18" t="s">
         <v>294</v>
       </c>
@@ -6297,7 +6279,7 @@
       <c r="D106" s="11"/>
       <c r="E106" s="18"/>
     </row>
-    <row r="107" spans="1:5" s="4" customFormat="1">
+    <row r="107" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="E107" s="17"/>
@@ -6336,7 +6318,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17" outlineLevel="1">
+    <row r="110" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A110" s="7" t="s">
         <v>7</v>
       </c>
@@ -6346,8 +6328,8 @@
       <c r="C110" s="6"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A111" s="27" t="s">
+    <row r="111" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A111" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -6357,8 +6339,8 @@
       <c r="D111" s="10"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A112" s="27"/>
+    <row r="112" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A112" s="32"/>
       <c r="B112" s="6" t="s">
         <v>295</v>
       </c>
@@ -6366,8 +6348,8 @@
       <c r="D112" s="10"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A113" s="27"/>
+    <row r="113" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A113" s="32"/>
       <c r="B113" s="6" t="s">
         <v>296</v>
       </c>
@@ -6375,7 +6357,7 @@
       <c r="D113" s="10"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" s="4" customFormat="1">
+    <row r="114" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="E114" s="17"/>
@@ -6414,7 +6396,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="18" outlineLevel="1">
+    <row r="117" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A117" s="7" t="s">
         <v>7</v>
       </c>
@@ -6424,8 +6406,8 @@
       <c r="C117" s="6"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A118" s="27" t="s">
+    <row r="118" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A118" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B118" s="18" t="s">
@@ -6435,8 +6417,8 @@
       <c r="D118" s="11"/>
       <c r="E118" s="18"/>
     </row>
-    <row r="119" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A119" s="27"/>
+    <row r="119" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A119" s="32"/>
       <c r="B119" s="6" t="s">
         <v>298</v>
       </c>
@@ -6444,8 +6426,8 @@
       <c r="D119" s="10"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" ht="119" outlineLevel="1">
-      <c r="A120" s="27"/>
+    <row r="120" spans="1:5" ht="119" hidden="1" outlineLevel="1">
+      <c r="A120" s="32"/>
       <c r="B120" s="24" t="s">
         <v>63</v>
       </c>
@@ -6453,7 +6435,7 @@
       <c r="D120" s="15"/>
       <c r="E120" s="24"/>
     </row>
-    <row r="121" spans="1:5" s="4" customFormat="1">
+    <row r="121" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
       <c r="E121" s="17"/>
@@ -6492,7 +6474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17" outlineLevel="1">
+    <row r="124" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A124" s="7" t="s">
         <v>7</v>
       </c>
@@ -6502,8 +6484,8 @@
       <c r="C124" s="6"/>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A125" s="27" t="s">
+    <row r="125" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A125" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B125" s="6" t="s">
@@ -6513,8 +6495,8 @@
       <c r="D125" s="10"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A126" s="27"/>
+    <row r="126" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A126" s="32"/>
       <c r="B126" s="6" t="s">
         <v>299</v>
       </c>
@@ -6522,7 +6504,7 @@
       <c r="D126" s="10"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:5" s="4" customFormat="1">
+    <row r="127" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="E127" s="17"/>
@@ -6561,7 +6543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="17" outlineLevel="1">
+    <row r="130" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A130" s="7" t="s">
         <v>7</v>
       </c>
@@ -6571,8 +6553,8 @@
       <c r="C130" s="6"/>
       <c r="E130" s="6"/>
     </row>
-    <row r="131" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A131" s="27" t="s">
+    <row r="131" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A131" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B131" s="6" t="s">
@@ -6582,8 +6564,8 @@
       <c r="D131" s="10"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A132" s="27"/>
+    <row r="132" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A132" s="32"/>
       <c r="B132" s="6" t="s">
         <v>300</v>
       </c>
@@ -6591,8 +6573,8 @@
       <c r="D132" s="10"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A133" s="27"/>
+    <row r="133" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A133" s="32"/>
       <c r="B133" s="6" t="s">
         <v>301</v>
       </c>
@@ -6600,7 +6582,7 @@
       <c r="D133" s="10"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="1:5" s="4" customFormat="1">
+    <row r="134" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
       <c r="E134" s="17"/>
@@ -6639,7 +6621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="17" outlineLevel="1">
+    <row r="137" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A137" s="7" t="s">
         <v>7</v>
       </c>
@@ -6649,8 +6631,8 @@
       <c r="C137" s="6"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A138" s="27" t="s">
+    <row r="138" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A138" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B138" s="6" t="s">
@@ -6660,8 +6642,8 @@
       <c r="D138" s="10"/>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A139" s="27"/>
+    <row r="139" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A139" s="32"/>
       <c r="B139" s="6" t="s">
         <v>302</v>
       </c>
@@ -6669,8 +6651,8 @@
       <c r="D139" s="10"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A140" s="27"/>
+    <row r="140" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A140" s="32"/>
       <c r="B140" s="6" t="s">
         <v>303</v>
       </c>
@@ -6678,7 +6660,7 @@
       <c r="D140" s="10"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5" s="4" customFormat="1">
+    <row r="141" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
       <c r="E141" s="17"/>
@@ -6728,7 +6710,7 @@
       <c r="E144" s="6"/>
     </row>
     <row r="145" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A145" s="27" t="s">
+      <c r="A145" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -6739,7 +6721,7 @@
       <c r="E145" s="23"/>
     </row>
     <row r="146" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A146" s="27"/>
+      <c r="A146" s="32"/>
       <c r="B146" s="6" t="s">
         <v>74</v>
       </c>
@@ -6748,7 +6730,7 @@
       <c r="E146" s="23"/>
     </row>
     <row r="147" spans="1:5" ht="136" outlineLevel="1">
-      <c r="A147" s="27"/>
+      <c r="A147" s="32"/>
       <c r="B147" s="6" t="s">
         <v>305</v>
       </c>
@@ -6757,7 +6739,7 @@
       <c r="E147" s="23"/>
     </row>
     <row r="148" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A148" s="27"/>
+      <c r="A148" s="32"/>
       <c r="B148" s="6" t="s">
         <v>306</v>
       </c>
@@ -6766,7 +6748,7 @@
       <c r="E148" s="23"/>
     </row>
     <row r="149" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A149" s="27"/>
+      <c r="A149" s="32"/>
       <c r="B149" s="6" t="s">
         <v>75</v>
       </c>
@@ -6775,7 +6757,7 @@
       <c r="E149" s="6"/>
     </row>
     <row r="150" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A150" s="27"/>
+      <c r="A150" s="32"/>
       <c r="B150" s="6" t="s">
         <v>76</v>
       </c>
@@ -6784,7 +6766,7 @@
       <c r="E150" s="6"/>
     </row>
     <row r="151" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A151" s="27"/>
+      <c r="A151" s="32"/>
       <c r="B151" s="6" t="s">
         <v>77</v>
       </c>
@@ -6793,7 +6775,7 @@
       <c r="E151" s="6"/>
     </row>
     <row r="152" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A152" s="27"/>
+      <c r="A152" s="32"/>
       <c r="B152" s="6" t="s">
         <v>78</v>
       </c>
@@ -6802,7 +6784,7 @@
       <c r="E152" s="6"/>
     </row>
     <row r="153" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A153" s="27"/>
+      <c r="A153" s="32"/>
       <c r="B153" s="6" t="s">
         <v>79</v>
       </c>
@@ -6811,7 +6793,7 @@
       <c r="E153" s="6"/>
     </row>
     <row r="154" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A154" s="27"/>
+      <c r="A154" s="32"/>
       <c r="B154" s="6" t="s">
         <v>80</v>
       </c>
@@ -6820,7 +6802,7 @@
       <c r="E154" s="6"/>
     </row>
     <row r="155" spans="1:5" ht="136" outlineLevel="1">
-      <c r="A155" s="27"/>
+      <c r="A155" s="32"/>
       <c r="B155" s="6" t="s">
         <v>307</v>
       </c>
@@ -6829,7 +6811,7 @@
       <c r="E155" s="6"/>
     </row>
     <row r="156" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A156" s="27"/>
+      <c r="A156" s="32"/>
       <c r="B156" s="25" t="s">
         <v>81</v>
       </c>
@@ -6880,7 +6862,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="18" outlineLevel="1">
+    <row r="161" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A161" s="7" t="s">
         <v>7</v>
       </c>
@@ -6890,8 +6872,8 @@
       <c r="C161" s="6"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A162" s="27" t="s">
+    <row r="162" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A162" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B162" s="6" t="s">
@@ -6901,8 +6883,8 @@
       <c r="D162" s="10"/>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A163" s="27"/>
+    <row r="163" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A163" s="32"/>
       <c r="B163" s="6" t="s">
         <v>309</v>
       </c>
@@ -6910,8 +6892,8 @@
       <c r="D163" s="10"/>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A164" s="27"/>
+    <row r="164" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A164" s="32"/>
       <c r="B164" s="6" t="s">
         <v>310</v>
       </c>
@@ -6919,8 +6901,8 @@
       <c r="D164" s="10"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A165" s="27"/>
+    <row r="165" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A165" s="32"/>
       <c r="B165" s="26" t="s">
         <v>311</v>
       </c>
@@ -6928,13 +6910,13 @@
       <c r="D165" s="7"/>
       <c r="E165" s="26"/>
     </row>
-    <row r="166" spans="1:5" s="4" customFormat="1">
+    <row r="166" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
       <c r="E166" s="17"/>
     </row>
     <row r="167" spans="1:5" ht="19">
-      <c r="A167" s="34" t="s">
+      <c r="A167" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B167" s="6" t="s">
@@ -6957,8 +6939,8 @@
       <c r="B168" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C168" s="32" t="s">
-        <v>470</v>
+      <c r="C168" s="28" t="s">
+        <v>469</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>6</v>
@@ -6967,7 +6949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="18" outlineLevel="1">
+    <row r="169" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A169" s="7" t="s">
         <v>7</v>
       </c>
@@ -6977,8 +6959,8 @@
       <c r="C169" s="6"/>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A170" s="27" t="s">
+    <row r="170" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A170" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B170" s="18" t="s">
@@ -6988,8 +6970,8 @@
       <c r="D170" s="11"/>
       <c r="E170" s="18"/>
     </row>
-    <row r="171" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A171" s="27"/>
+    <row r="171" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A171" s="32"/>
       <c r="B171" s="18" t="s">
         <v>313</v>
       </c>
@@ -6997,8 +6979,8 @@
       <c r="D171" s="11"/>
       <c r="E171" s="18"/>
     </row>
-    <row r="172" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A172" s="27"/>
+    <row r="172" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A172" s="32"/>
       <c r="B172" s="6" t="s">
         <v>314</v>
       </c>
@@ -7006,8 +6988,8 @@
       <c r="D172" s="10"/>
       <c r="E172" s="6"/>
     </row>
-    <row r="173" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A173" s="27"/>
+    <row r="173" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A173" s="32"/>
       <c r="B173" s="6" t="s">
         <v>89</v>
       </c>
@@ -7015,8 +6997,8 @@
       <c r="D173" s="10"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A174" s="27"/>
+    <row r="174" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A174" s="32"/>
       <c r="B174" s="6" t="s">
         <v>315</v>
       </c>
@@ -7024,8 +7006,8 @@
       <c r="D174" s="10"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A175" s="27"/>
+    <row r="175" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A175" s="32"/>
       <c r="B175" s="6" t="s">
         <v>90</v>
       </c>
@@ -7033,7 +7015,7 @@
       <c r="D175" s="10"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="176" spans="1:5" s="4" customFormat="1">
+    <row r="176" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
       <c r="E176" s="17"/>
@@ -7072,7 +7054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="17" outlineLevel="1">
+    <row r="179" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A179" s="7" t="s">
         <v>7</v>
       </c>
@@ -7082,8 +7064,8 @@
       <c r="C179" s="6"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="1:5" ht="102" outlineLevel="1">
-      <c r="A180" s="27" t="s">
+    <row r="180" spans="1:5" ht="102" hidden="1" outlineLevel="1">
+      <c r="A180" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B180" s="6" t="s">
@@ -7092,55 +7074,55 @@
       <c r="C180" s="6"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A181" s="27"/>
+    <row r="181" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A181" s="32"/>
       <c r="B181" s="6" t="s">
         <v>316</v>
       </c>
       <c r="C181" s="6"/>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A182" s="27"/>
+    <row r="182" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A182" s="32"/>
       <c r="B182" s="6" t="s">
         <v>317</v>
       </c>
       <c r="C182" s="6"/>
       <c r="E182" s="6"/>
     </row>
-    <row r="183" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A183" s="27"/>
+    <row r="183" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A183" s="32"/>
       <c r="B183" s="6" t="s">
         <v>318</v>
       </c>
       <c r="C183" s="6"/>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A184" s="27"/>
+    <row r="184" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A184" s="32"/>
       <c r="B184" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C184" s="6"/>
       <c r="E184" s="6"/>
     </row>
-    <row r="185" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A185" s="27"/>
+    <row r="185" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A185" s="32"/>
       <c r="B185" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C185" s="6"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A186" s="27"/>
+    <row r="186" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A186" s="32"/>
       <c r="B186" s="6" t="s">
         <v>319</v>
       </c>
       <c r="C186" s="6"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="1:5" s="4" customFormat="1">
+    <row r="187" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
       <c r="E187" s="17"/>
@@ -7179,7 +7161,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="18" outlineLevel="1">
+    <row r="190" spans="1:5" ht="18" hidden="1" outlineLevel="1">
       <c r="A190" s="7" t="s">
         <v>7</v>
       </c>
@@ -7189,8 +7171,8 @@
       <c r="C190" s="6"/>
       <c r="E190" s="6"/>
     </row>
-    <row r="191" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A191" s="27" t="s">
+    <row r="191" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A191" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B191" s="18" t="s">
@@ -7199,15 +7181,15 @@
       <c r="C191" s="18"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="1:5" ht="119" outlineLevel="1">
-      <c r="A192" s="27"/>
+    <row r="192" spans="1:5" ht="119" hidden="1" outlineLevel="1">
+      <c r="A192" s="32"/>
       <c r="B192" s="19" t="s">
         <v>321</v>
       </c>
       <c r="C192" s="19"/>
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="1:5" s="4" customFormat="1">
+    <row r="193" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
       <c r="E193" s="17"/>
@@ -7217,7 +7199,7 @@
         <v>99</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>3</v>
@@ -7234,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>322</v>
@@ -7246,7 +7228,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="17" outlineLevel="1">
+    <row r="196" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A196" s="7" t="s">
         <v>7</v>
       </c>
@@ -7256,8 +7238,8 @@
       <c r="C196" s="6"/>
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A197" s="27" t="s">
+    <row r="197" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A197" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B197" s="6" t="s">
@@ -7266,223 +7248,223 @@
       <c r="C197" s="6"/>
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A198" s="27"/>
+    <row r="198" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A198" s="32"/>
       <c r="B198" s="6" t="s">
         <v>323</v>
       </c>
       <c r="C198" s="6"/>
       <c r="E198" s="6"/>
     </row>
-    <row r="199" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A199" s="27"/>
+    <row r="199" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A199" s="32"/>
       <c r="B199" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C199" s="6"/>
       <c r="E199" s="6"/>
     </row>
-    <row r="200" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A200" s="27"/>
-      <c r="B200" s="33" t="s">
+    <row r="200" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A200" s="32"/>
+      <c r="B200" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C200" s="33"/>
+      <c r="C200" s="29"/>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A201" s="27"/>
+    <row r="201" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A201" s="32"/>
       <c r="B201" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C201" s="6"/>
       <c r="E201" s="6"/>
     </row>
-    <row r="202" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A202" s="27"/>
+    <row r="202" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A202" s="32"/>
       <c r="B202" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C202" s="6"/>
       <c r="E202" s="6"/>
     </row>
-    <row r="203" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A203" s="27"/>
+    <row r="203" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A203" s="32"/>
       <c r="B203" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C203" s="6"/>
       <c r="E203" s="6"/>
     </row>
-    <row r="204" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A204" s="27"/>
+    <row r="204" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A204" s="32"/>
       <c r="B204" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C204" s="6"/>
       <c r="E204" s="6"/>
     </row>
-    <row r="205" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A205" s="27"/>
+    <row r="205" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A205" s="32"/>
       <c r="B205" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C205" s="6"/>
       <c r="E205" s="6"/>
     </row>
-    <row r="206" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A206" s="27"/>
+    <row r="206" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A206" s="32"/>
       <c r="B206" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C206" s="6"/>
       <c r="E206" s="6"/>
     </row>
-    <row r="207" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A207" s="27"/>
+    <row r="207" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A207" s="32"/>
       <c r="B207" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C207" s="6"/>
       <c r="E207" s="6"/>
     </row>
-    <row r="208" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A208" s="27"/>
+    <row r="208" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A208" s="32"/>
       <c r="B208" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C208" s="6"/>
       <c r="E208" s="6"/>
     </row>
-    <row r="209" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A209" s="27"/>
+    <row r="209" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A209" s="32"/>
       <c r="B209" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C209" s="6"/>
       <c r="E209" s="6"/>
     </row>
-    <row r="210" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A210" s="27"/>
+    <row r="210" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A210" s="32"/>
       <c r="B210" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C210" s="6"/>
       <c r="E210" s="6"/>
     </row>
-    <row r="211" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A211" s="27"/>
+    <row r="211" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A211" s="32"/>
       <c r="B211" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C211" s="6"/>
       <c r="E211" s="6"/>
     </row>
-    <row r="212" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A212" s="27"/>
+    <row r="212" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A212" s="32"/>
       <c r="B212" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C212" s="6"/>
       <c r="E212" s="6"/>
     </row>
-    <row r="213" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A213" s="27"/>
+    <row r="213" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A213" s="32"/>
       <c r="B213" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C213" s="6"/>
       <c r="E213" s="6"/>
     </row>
-    <row r="214" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A214" s="27"/>
+    <row r="214" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A214" s="32"/>
       <c r="B214" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C214" s="6"/>
       <c r="E214" s="6"/>
     </row>
-    <row r="215" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A215" s="27"/>
+    <row r="215" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A215" s="32"/>
       <c r="B215" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C215" s="6"/>
       <c r="E215" s="6"/>
     </row>
-    <row r="216" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A216" s="27"/>
+    <row r="216" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A216" s="32"/>
       <c r="B216" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C216" s="6"/>
       <c r="E216" s="6"/>
     </row>
-    <row r="217" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A217" s="27"/>
+    <row r="217" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A217" s="32"/>
       <c r="B217" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C217" s="6"/>
       <c r="E217" s="6"/>
     </row>
-    <row r="218" spans="1:5" ht="102" outlineLevel="1">
-      <c r="A218" s="27"/>
+    <row r="218" spans="1:5" ht="102" hidden="1" outlineLevel="1">
+      <c r="A218" s="32"/>
       <c r="B218" s="6" t="s">
         <v>325</v>
       </c>
       <c r="C218" s="6"/>
       <c r="E218" s="6"/>
     </row>
-    <row r="219" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A219" s="27"/>
+    <row r="219" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A219" s="32"/>
       <c r="B219" s="6" t="s">
         <v>326</v>
       </c>
       <c r="C219" s="6"/>
       <c r="E219" s="6"/>
     </row>
-    <row r="220" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A220" s="27"/>
+    <row r="220" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A220" s="32"/>
       <c r="B220" s="6" t="s">
         <v>327</v>
       </c>
       <c r="C220" s="6"/>
       <c r="E220" s="6"/>
     </row>
-    <row r="221" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A221" s="27"/>
+    <row r="221" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A221" s="32"/>
       <c r="B221" s="6" t="s">
         <v>328</v>
       </c>
       <c r="C221" s="6"/>
       <c r="E221" s="6"/>
     </row>
-    <row r="222" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A222" s="27"/>
+    <row r="222" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A222" s="32"/>
       <c r="B222" s="6" t="s">
         <v>329</v>
       </c>
       <c r="C222" s="6"/>
       <c r="E222" s="6"/>
     </row>
-    <row r="223" spans="1:5" ht="204" outlineLevel="1">
-      <c r="A223" s="27"/>
+    <row r="223" spans="1:5" ht="204" hidden="1" outlineLevel="1">
+      <c r="A223" s="32"/>
       <c r="B223" s="6" t="s">
         <v>330</v>
       </c>
       <c r="C223" s="6"/>
       <c r="E223" s="6"/>
     </row>
-    <row r="224" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A224" s="27"/>
+    <row r="224" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A224" s="32"/>
       <c r="B224" s="6" t="s">
         <v>331</v>
       </c>
       <c r="C224" s="6"/>
       <c r="E224" s="6"/>
     </row>
-    <row r="225" spans="1:5" s="4" customFormat="1">
+    <row r="225" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
       <c r="E225" s="17"/>
@@ -7521,7 +7503,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="17" outlineLevel="1">
+    <row r="228" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A228" s="7" t="s">
         <v>7</v>
       </c>
@@ -7531,8 +7513,8 @@
       <c r="C228" s="6"/>
       <c r="E228" s="6"/>
     </row>
-    <row r="229" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A229" s="27" t="s">
+    <row r="229" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A229" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B229" s="6" t="s">
@@ -7541,47 +7523,47 @@
       <c r="C229" s="6"/>
       <c r="E229" s="6"/>
     </row>
-    <row r="230" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A230" s="27"/>
+    <row r="230" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A230" s="32"/>
       <c r="B230" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C230" s="24"/>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A231" s="27"/>
+    <row r="231" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A231" s="32"/>
       <c r="B231" s="6" t="s">
         <v>333</v>
       </c>
       <c r="C231" s="6"/>
       <c r="E231" s="6"/>
     </row>
-    <row r="232" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A232" s="27"/>
+    <row r="232" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A232" s="32"/>
       <c r="B232" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C232" s="6"/>
       <c r="E232" s="6"/>
     </row>
-    <row r="233" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A233" s="27"/>
+    <row r="233" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A233" s="32"/>
       <c r="B233" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C233" s="6"/>
       <c r="E233" s="6"/>
     </row>
-    <row r="234" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A234" s="27"/>
+    <row r="234" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A234" s="32"/>
       <c r="B234" s="6" t="s">
         <v>334</v>
       </c>
       <c r="C234" s="6"/>
       <c r="E234" s="6"/>
     </row>
-    <row r="235" spans="1:5" s="4" customFormat="1">
+    <row r="235" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
       <c r="E235" s="17"/>
@@ -7620,7 +7602,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="17" outlineLevel="1">
+    <row r="238" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A238" s="7" t="s">
         <v>7</v>
       </c>
@@ -7630,7 +7612,7 @@
       <c r="C238" s="6"/>
       <c r="E238" s="6"/>
     </row>
-    <row r="239" spans="1:5" ht="68" outlineLevel="1">
+    <row r="239" spans="1:5" ht="68" hidden="1" outlineLevel="1">
       <c r="A239" s="7" t="s">
         <v>9</v>
       </c>
@@ -7640,7 +7622,7 @@
       <c r="C239" s="6"/>
       <c r="E239" s="6"/>
     </row>
-    <row r="240" spans="1:5" s="4" customFormat="1">
+    <row r="240" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B240" s="17"/>
       <c r="C240" s="17"/>
       <c r="E240" s="17"/>
@@ -7667,7 +7649,7 @@
         <v>1</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>227</v>
@@ -7679,7 +7661,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="17" outlineLevel="1">
+    <row r="243" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A243" s="7" t="s">
         <v>7</v>
       </c>
@@ -7689,7 +7671,7 @@
       <c r="C243" s="6"/>
       <c r="E243" s="6"/>
     </row>
-    <row r="244" spans="1:5" ht="85" outlineLevel="1">
+    <row r="244" spans="1:5" ht="85" hidden="1" outlineLevel="1">
       <c r="A244" s="7" t="s">
         <v>9</v>
       </c>
@@ -7699,7 +7681,7 @@
       <c r="C244" s="6"/>
       <c r="E244" s="6"/>
     </row>
-    <row r="245" spans="1:5" s="4" customFormat="1">
+    <row r="245" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
       <c r="E245" s="17"/>
@@ -7738,7 +7720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="17" outlineLevel="1">
+    <row r="248" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A248" s="7" t="s">
         <v>7</v>
       </c>
@@ -7748,8 +7730,8 @@
       <c r="C248" s="6"/>
       <c r="E248" s="6"/>
     </row>
-    <row r="249" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A249" s="27" t="s">
+    <row r="249" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A249" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B249" s="6" t="s">
@@ -7758,55 +7740,55 @@
       <c r="C249" s="6"/>
       <c r="E249" s="6"/>
     </row>
-    <row r="250" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A250" s="27"/>
+    <row r="250" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A250" s="32"/>
       <c r="B250" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C250" s="6"/>
       <c r="E250" s="6"/>
     </row>
-    <row r="251" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A251" s="27"/>
+    <row r="251" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A251" s="32"/>
       <c r="B251" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C251" s="6"/>
       <c r="E251" s="6"/>
     </row>
-    <row r="252" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A252" s="27"/>
+    <row r="252" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A252" s="32"/>
       <c r="B252" s="6" t="s">
         <v>340</v>
       </c>
       <c r="C252" s="6"/>
       <c r="E252" s="6"/>
     </row>
-    <row r="253" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A253" s="27"/>
+    <row r="253" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A253" s="32"/>
       <c r="B253" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C253" s="6"/>
       <c r="E253" s="6"/>
     </row>
-    <row r="254" spans="1:5" ht="159" outlineLevel="1">
-      <c r="A254" s="27"/>
+    <row r="254" spans="1:5" ht="159" hidden="1" outlineLevel="1">
+      <c r="A254" s="32"/>
       <c r="B254" s="6" t="s">
         <v>341</v>
       </c>
       <c r="C254" s="6"/>
       <c r="E254" s="6"/>
     </row>
-    <row r="255" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A255" s="27"/>
+    <row r="255" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A255" s="32"/>
       <c r="B255" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C255" s="6"/>
       <c r="E255" s="6"/>
     </row>
-    <row r="256" spans="1:5" s="4" customFormat="1">
+    <row r="256" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
       <c r="E256" s="17"/>
@@ -7845,7 +7827,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="17" outlineLevel="1">
+    <row r="259" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A259" s="7" t="s">
         <v>7</v>
       </c>
@@ -7855,8 +7837,8 @@
       <c r="C259" s="6"/>
       <c r="E259" s="6"/>
     </row>
-    <row r="260" spans="1:5" ht="102" outlineLevel="1">
-      <c r="A260" s="27" t="s">
+    <row r="260" spans="1:5" ht="102" hidden="1" outlineLevel="1">
+      <c r="A260" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B260" s="6" t="s">
@@ -7865,23 +7847,23 @@
       <c r="C260" s="6"/>
       <c r="E260" s="6"/>
     </row>
-    <row r="261" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A261" s="27"/>
+    <row r="261" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A261" s="32"/>
       <c r="B261" s="6" t="s">
         <v>137</v>
       </c>
       <c r="C261" s="6"/>
       <c r="E261" s="6"/>
     </row>
-    <row r="262" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A262" s="27"/>
+    <row r="262" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A262" s="32"/>
       <c r="B262" s="6" t="s">
         <v>345</v>
       </c>
       <c r="C262" s="6"/>
       <c r="E262" s="6"/>
     </row>
-    <row r="263" spans="1:5" s="4" customFormat="1">
+    <row r="263" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B263" s="17"/>
       <c r="C263" s="17"/>
       <c r="E263" s="17"/>
@@ -7920,8 +7902,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A266" s="27" t="s">
+    <row r="266" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A266" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B266" s="6" t="s">
@@ -7930,23 +7912,23 @@
       <c r="C266" s="6"/>
       <c r="E266" s="6"/>
     </row>
-    <row r="267" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A267" s="27"/>
+    <row r="267" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A267" s="32"/>
       <c r="B267" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C267" s="6"/>
       <c r="E267" s="6"/>
     </row>
-    <row r="268" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A268" s="27"/>
+    <row r="268" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A268" s="32"/>
       <c r="B268" s="6" t="s">
         <v>347</v>
       </c>
       <c r="C268" s="6"/>
       <c r="E268" s="6"/>
     </row>
-    <row r="269" spans="1:5" ht="187" outlineLevel="1">
+    <row r="269" spans="1:5" ht="187" hidden="1" outlineLevel="1">
       <c r="A269" s="7" t="s">
         <v>9</v>
       </c>
@@ -7956,7 +7938,7 @@
       <c r="C269" s="6"/>
       <c r="E269" s="6"/>
     </row>
-    <row r="270" spans="1:5" s="4" customFormat="1">
+    <row r="270" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
       <c r="E270" s="17"/>
@@ -7995,7 +7977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="17" outlineLevel="1">
+    <row r="273" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A273" s="7" t="s">
         <v>7</v>
       </c>
@@ -8005,8 +7987,8 @@
       <c r="C273" s="6"/>
       <c r="E273" s="6"/>
     </row>
-    <row r="274" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A274" s="27" t="s">
+    <row r="274" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A274" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B274" s="6" t="s">
@@ -8015,15 +7997,15 @@
       <c r="C274" s="6"/>
       <c r="E274" s="6"/>
     </row>
-    <row r="275" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A275" s="27"/>
+    <row r="275" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A275" s="32"/>
       <c r="B275" s="6" t="s">
         <v>349</v>
       </c>
       <c r="C275" s="6"/>
       <c r="E275" s="6"/>
     </row>
-    <row r="276" spans="1:5" s="4" customFormat="1">
+    <row r="276" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B276" s="17"/>
       <c r="C276" s="17"/>
       <c r="E276" s="17"/>
@@ -8062,7 +8044,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="17" outlineLevel="1">
+    <row r="279" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A279" s="7" t="s">
         <v>7</v>
       </c>
@@ -8072,7 +8054,7 @@
       <c r="C279" s="6"/>
       <c r="E279" s="6"/>
     </row>
-    <row r="280" spans="1:5" ht="51" outlineLevel="1">
+    <row r="280" spans="1:5" ht="51" hidden="1" outlineLevel="1">
       <c r="A280" s="7" t="s">
         <v>9</v>
       </c>
@@ -8082,7 +8064,7 @@
       <c r="C280" s="6"/>
       <c r="E280" s="6"/>
     </row>
-    <row r="281" spans="1:5" s="4" customFormat="1">
+    <row r="281" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
       <c r="E281" s="17"/>
@@ -8121,7 +8103,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="17" outlineLevel="1">
+    <row r="284" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A284" s="7" t="s">
         <v>7</v>
       </c>
@@ -8131,8 +8113,8 @@
       <c r="C284" s="6"/>
       <c r="E284" s="6"/>
     </row>
-    <row r="285" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A285" s="27" t="s">
+    <row r="285" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A285" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B285" s="24" t="s">
@@ -8141,15 +8123,15 @@
       <c r="C285" s="24"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A286" s="27"/>
+    <row r="286" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A286" s="32"/>
       <c r="B286" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C286" s="6"/>
       <c r="E286" s="6"/>
     </row>
-    <row r="287" spans="1:5" s="4" customFormat="1">
+    <row r="287" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
       <c r="E287" s="17"/>
@@ -8188,7 +8170,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="17" outlineLevel="1">
+    <row r="290" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A290" s="7" t="s">
         <v>7</v>
       </c>
@@ -8198,7 +8180,7 @@
       <c r="C290" s="6"/>
       <c r="E290" s="6"/>
     </row>
-    <row r="291" spans="1:5" ht="51" outlineLevel="1">
+    <row r="291" spans="1:5" ht="51" hidden="1" outlineLevel="1">
       <c r="A291" s="7" t="s">
         <v>9</v>
       </c>
@@ -8208,7 +8190,7 @@
       <c r="C291" s="24"/>
       <c r="E291" s="6"/>
     </row>
-    <row r="292" spans="1:5" s="4" customFormat="1">
+    <row r="292" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B292" s="17"/>
       <c r="C292" s="17"/>
       <c r="E292" s="17"/>
@@ -8247,7 +8229,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="17" outlineLevel="1">
+    <row r="295" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A295" s="7" t="s">
         <v>7</v>
       </c>
@@ -8257,8 +8239,8 @@
       <c r="C295" s="6"/>
       <c r="E295" s="6"/>
     </row>
-    <row r="296" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A296" s="27" t="s">
+    <row r="296" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A296" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B296" s="6" t="s">
@@ -8267,39 +8249,39 @@
       <c r="C296" s="6"/>
       <c r="E296" s="6"/>
     </row>
-    <row r="297" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A297" s="27"/>
+    <row r="297" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A297" s="32"/>
       <c r="B297" s="6" t="s">
         <v>356</v>
       </c>
       <c r="C297" s="6"/>
       <c r="E297" s="6"/>
     </row>
-    <row r="298" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A298" s="27"/>
+    <row r="298" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A298" s="32"/>
       <c r="B298" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C298" s="6"/>
       <c r="E298" s="6"/>
     </row>
-    <row r="299" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A299" s="27"/>
+    <row r="299" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A299" s="32"/>
       <c r="B299" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C299" s="6"/>
       <c r="E299" s="6"/>
     </row>
-    <row r="300" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A300" s="27"/>
+    <row r="300" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A300" s="32"/>
       <c r="B300" s="6" t="s">
         <v>357</v>
       </c>
       <c r="C300" s="6"/>
       <c r="E300" s="6"/>
     </row>
-    <row r="301" spans="1:5" s="4" customFormat="1">
+    <row r="301" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B301" s="17"/>
       <c r="C301" s="17"/>
       <c r="E301" s="17"/>
@@ -8338,7 +8320,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="17" outlineLevel="1">
+    <row r="304" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A304" s="7" t="s">
         <v>7</v>
       </c>
@@ -8348,8 +8330,8 @@
       <c r="C304" s="6"/>
       <c r="E304" s="6"/>
     </row>
-    <row r="305" spans="1:5" ht="136" outlineLevel="1">
-      <c r="A305" s="27" t="s">
+    <row r="305" spans="1:5" ht="136" hidden="1" outlineLevel="1">
+      <c r="A305" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B305" s="6" t="s">
@@ -8358,95 +8340,95 @@
       <c r="C305" s="6"/>
       <c r="E305" s="6"/>
     </row>
-    <row r="306" spans="1:5" ht="238" outlineLevel="1">
-      <c r="A306" s="27"/>
+    <row r="306" spans="1:5" ht="238" hidden="1" outlineLevel="1">
+      <c r="A306" s="32"/>
       <c r="B306" s="6" t="s">
         <v>359</v>
       </c>
       <c r="C306" s="6"/>
       <c r="E306" s="6"/>
     </row>
-    <row r="307" spans="1:5" ht="119" outlineLevel="1">
-      <c r="A307" s="27"/>
+    <row r="307" spans="1:5" ht="119" hidden="1" outlineLevel="1">
+      <c r="A307" s="32"/>
       <c r="B307" s="6" t="s">
         <v>360</v>
       </c>
       <c r="C307" s="6"/>
       <c r="E307" s="6"/>
     </row>
-    <row r="308" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A308" s="27"/>
+    <row r="308" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A308" s="32"/>
       <c r="B308" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C308" s="6"/>
       <c r="E308" s="6"/>
     </row>
-    <row r="309" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A309" s="27"/>
+    <row r="309" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A309" s="32"/>
       <c r="B309" s="21" t="s">
         <v>163</v>
       </c>
       <c r="C309" s="21"/>
       <c r="E309" s="6"/>
     </row>
-    <row r="310" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A310" s="27"/>
+    <row r="310" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A310" s="32"/>
       <c r="B310" s="6" t="s">
         <v>361</v>
       </c>
       <c r="C310" s="6"/>
       <c r="E310" s="6"/>
     </row>
-    <row r="311" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A311" s="27"/>
+    <row r="311" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A311" s="32"/>
       <c r="B311" s="6" t="s">
         <v>164</v>
       </c>
       <c r="C311" s="6"/>
       <c r="E311" s="6"/>
     </row>
-    <row r="312" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A312" s="27"/>
+    <row r="312" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A312" s="32"/>
       <c r="B312" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C312" s="6"/>
       <c r="E312" s="6"/>
     </row>
-    <row r="313" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A313" s="27"/>
+    <row r="313" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A313" s="32"/>
       <c r="B313" s="21" t="s">
         <v>163</v>
       </c>
       <c r="C313" s="21"/>
       <c r="E313" s="6"/>
     </row>
-    <row r="314" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A314" s="27"/>
+    <row r="314" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A314" s="32"/>
       <c r="B314" s="6" t="s">
         <v>362</v>
       </c>
       <c r="C314" s="6"/>
       <c r="E314" s="6"/>
     </row>
-    <row r="315" spans="1:5" ht="136" outlineLevel="1">
-      <c r="A315" s="27"/>
+    <row r="315" spans="1:5" ht="136" hidden="1" outlineLevel="1">
+      <c r="A315" s="32"/>
       <c r="B315" s="6" t="s">
         <v>363</v>
       </c>
       <c r="C315" s="6"/>
       <c r="E315" s="6"/>
     </row>
-    <row r="316" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A316" s="27"/>
+    <row r="316" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A316" s="32"/>
       <c r="B316" s="6" t="s">
         <v>364</v>
       </c>
       <c r="C316" s="6"/>
       <c r="E316" s="6"/>
     </row>
-    <row r="317" spans="1:5" s="4" customFormat="1">
+    <row r="317" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B317" s="17"/>
       <c r="C317" s="17"/>
       <c r="E317" s="17"/>
@@ -8473,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>167</v>
@@ -8485,7 +8467,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="17" outlineLevel="1">
+    <row r="320" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A320" s="7" t="s">
         <v>7</v>
       </c>
@@ -8495,7 +8477,7 @@
       <c r="C320" s="6"/>
       <c r="E320" s="6"/>
     </row>
-    <row r="321" spans="1:5" ht="51" outlineLevel="1">
+    <row r="321" spans="1:5" ht="51" hidden="1" outlineLevel="1">
       <c r="A321" s="7" t="s">
         <v>9</v>
       </c>
@@ -8505,7 +8487,7 @@
       <c r="C321" s="6"/>
       <c r="E321" s="6"/>
     </row>
-    <row r="322" spans="1:5" s="4" customFormat="1">
+    <row r="322" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B322" s="17"/>
       <c r="C322" s="17"/>
       <c r="E322" s="17"/>
@@ -8544,7 +8526,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="17" outlineLevel="1">
+    <row r="325" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A325" s="7" t="s">
         <v>7</v>
       </c>
@@ -8554,8 +8536,8 @@
       <c r="C325" s="6"/>
       <c r="E325" s="6"/>
     </row>
-    <row r="326" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A326" s="27" t="s">
+    <row r="326" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A326" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B326" s="24" t="s">
@@ -8564,15 +8546,15 @@
       <c r="C326" s="24"/>
       <c r="E326" s="6"/>
     </row>
-    <row r="327" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A327" s="27"/>
+    <row r="327" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A327" s="32"/>
       <c r="B327" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C327" s="6"/>
       <c r="E327" s="6"/>
     </row>
-    <row r="328" spans="1:5" s="4" customFormat="1">
+    <row r="328" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B328" s="17"/>
       <c r="C328" s="17"/>
       <c r="E328" s="17"/>
@@ -8611,7 +8593,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="17" outlineLevel="1">
+    <row r="331" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A331" s="7" t="s">
         <v>7</v>
       </c>
@@ -8621,8 +8603,8 @@
       <c r="C331" s="6"/>
       <c r="E331" s="6"/>
     </row>
-    <row r="332" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A332" s="27" t="s">
+    <row r="332" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A332" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B332" s="24" t="s">
@@ -8631,15 +8613,15 @@
       <c r="C332" s="24"/>
       <c r="E332" s="6"/>
     </row>
-    <row r="333" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A333" s="27"/>
+    <row r="333" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A333" s="32"/>
       <c r="B333" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C333" s="6"/>
       <c r="E333" s="6"/>
     </row>
-    <row r="334" spans="1:5" s="4" customFormat="1">
+    <row r="334" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B334" s="17"/>
       <c r="C334" s="17"/>
       <c r="E334" s="17"/>
@@ -8678,7 +8660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="17" outlineLevel="1">
+    <row r="337" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A337" s="7" t="s">
         <v>7</v>
       </c>
@@ -8688,8 +8670,8 @@
       <c r="C337" s="6"/>
       <c r="E337" s="6"/>
     </row>
-    <row r="338" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A338" s="27" t="s">
+    <row r="338" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A338" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B338" s="6" t="s">
@@ -8698,23 +8680,23 @@
       <c r="C338" s="6"/>
       <c r="E338" s="6"/>
     </row>
-    <row r="339" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A339" s="27"/>
+    <row r="339" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A339" s="32"/>
       <c r="B339" s="6" t="s">
         <v>183</v>
       </c>
       <c r="C339" s="6"/>
       <c r="E339" s="6"/>
     </row>
-    <row r="340" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A340" s="27"/>
+    <row r="340" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A340" s="32"/>
       <c r="B340" s="6" t="s">
         <v>366</v>
       </c>
       <c r="C340" s="6"/>
       <c r="E340" s="6"/>
     </row>
-    <row r="341" spans="1:5" s="4" customFormat="1">
+    <row r="341" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B341" s="17"/>
       <c r="C341" s="17"/>
       <c r="E341" s="17"/>
@@ -8753,7 +8735,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="17" outlineLevel="1">
+    <row r="344" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A344" s="7" t="s">
         <v>7</v>
       </c>
@@ -8763,8 +8745,8 @@
       <c r="C344" s="6"/>
       <c r="E344" s="6"/>
     </row>
-    <row r="345" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A345" s="27" t="s">
+    <row r="345" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A345" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B345" s="6" t="s">
@@ -8773,23 +8755,23 @@
       <c r="C345" s="6"/>
       <c r="E345" s="6"/>
     </row>
-    <row r="346" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A346" s="27"/>
+    <row r="346" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A346" s="32"/>
       <c r="B346" s="6" t="s">
         <v>187</v>
       </c>
       <c r="C346" s="6"/>
       <c r="E346" s="6"/>
     </row>
-    <row r="347" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A347" s="27"/>
+    <row r="347" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A347" s="32"/>
       <c r="B347" s="6" t="s">
         <v>345</v>
       </c>
       <c r="C347" s="6"/>
       <c r="E347" s="6"/>
     </row>
-    <row r="348" spans="1:5" s="4" customFormat="1">
+    <row r="348" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B348" s="17"/>
       <c r="C348" s="17"/>
       <c r="E348" s="17"/>
@@ -8816,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>247</v>
@@ -8828,7 +8810,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="17" outlineLevel="1">
+    <row r="351" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A351" s="7" t="s">
         <v>7</v>
       </c>
@@ -8838,8 +8820,8 @@
       <c r="C351" s="6"/>
       <c r="E351" s="6"/>
     </row>
-    <row r="352" spans="1:5" ht="102" outlineLevel="1">
-      <c r="A352" s="27" t="s">
+    <row r="352" spans="1:5" ht="102" hidden="1" outlineLevel="1">
+      <c r="A352" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B352" s="20" t="s">
@@ -8848,47 +8830,47 @@
       <c r="C352" s="20"/>
       <c r="E352" s="6"/>
     </row>
-    <row r="353" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A353" s="27"/>
+    <row r="353" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A353" s="32"/>
       <c r="B353" s="20" t="s">
         <v>370</v>
       </c>
       <c r="C353" s="20"/>
       <c r="E353" s="6"/>
     </row>
-    <row r="354" spans="1:5" ht="187" outlineLevel="1">
-      <c r="A354" s="27"/>
+    <row r="354" spans="1:5" ht="187" hidden="1" outlineLevel="1">
+      <c r="A354" s="32"/>
       <c r="B354" s="6" t="s">
         <v>371</v>
       </c>
       <c r="C354" s="6"/>
       <c r="E354" s="6"/>
     </row>
-    <row r="355" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A355" s="27"/>
+    <row r="355" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A355" s="32"/>
       <c r="B355" s="6" t="s">
         <v>372</v>
       </c>
       <c r="C355" s="6"/>
       <c r="E355" s="6"/>
     </row>
-    <row r="356" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A356" s="27"/>
+    <row r="356" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A356" s="32"/>
       <c r="B356" s="20" t="s">
         <v>373</v>
       </c>
       <c r="C356" s="20"/>
       <c r="E356" s="6"/>
     </row>
-    <row r="357" spans="1:5" ht="102" outlineLevel="1">
-      <c r="A357" s="27"/>
+    <row r="357" spans="1:5" ht="102" hidden="1" outlineLevel="1">
+      <c r="A357" s="32"/>
       <c r="B357" s="6" t="s">
         <v>374</v>
       </c>
       <c r="C357" s="6"/>
       <c r="E357" s="6"/>
     </row>
-    <row r="358" spans="1:5" s="4" customFormat="1">
+    <row r="358" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B358" s="17"/>
       <c r="C358" s="17"/>
       <c r="E358" s="17"/>
@@ -8927,7 +8909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="17" outlineLevel="1">
+    <row r="361" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A361" s="7" t="s">
         <v>7</v>
       </c>
@@ -8937,8 +8919,8 @@
       <c r="C361" s="6"/>
       <c r="E361" s="6"/>
     </row>
-    <row r="362" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A362" s="27" t="s">
+    <row r="362" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A362" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B362" s="6" t="s">
@@ -8947,15 +8929,15 @@
       <c r="C362" s="6"/>
       <c r="E362" s="6"/>
     </row>
-    <row r="363" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A363" s="27"/>
+    <row r="363" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A363" s="32"/>
       <c r="B363" s="6" t="s">
         <v>375</v>
       </c>
       <c r="C363" s="6"/>
       <c r="E363" s="6"/>
     </row>
-    <row r="364" spans="1:5" s="4" customFormat="1">
+    <row r="364" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B364" s="17"/>
       <c r="C364" s="17"/>
       <c r="E364" s="17"/>
@@ -8994,7 +8976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="17" outlineLevel="1">
+    <row r="367" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A367" s="7" t="s">
         <v>7</v>
       </c>
@@ -9004,8 +8986,8 @@
       <c r="C367" s="6"/>
       <c r="E367" s="6"/>
     </row>
-    <row r="368" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A368" s="27" t="s">
+    <row r="368" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A368" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B368" s="6" t="s">
@@ -9014,15 +8996,15 @@
       <c r="C368" s="6"/>
       <c r="E368" s="6"/>
     </row>
-    <row r="369" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A369" s="27"/>
+    <row r="369" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A369" s="32"/>
       <c r="B369" s="20" t="s">
         <v>376</v>
       </c>
       <c r="C369" s="6"/>
       <c r="E369" s="6"/>
     </row>
-    <row r="370" spans="1:5" s="4" customFormat="1">
+    <row r="370" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B370" s="17"/>
       <c r="C370" s="17"/>
       <c r="E370" s="17"/>
@@ -9061,7 +9043,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="17" outlineLevel="1">
+    <row r="373" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A373" s="7" t="s">
         <v>7</v>
       </c>
@@ -9071,8 +9053,8 @@
       <c r="C373" s="6"/>
       <c r="E373" s="6"/>
     </row>
-    <row r="374" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A374" s="27" t="s">
+    <row r="374" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A374" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B374" s="6" t="s">
@@ -9081,39 +9063,39 @@
       <c r="C374" s="6"/>
       <c r="E374" s="6"/>
     </row>
-    <row r="375" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A375" s="27"/>
+    <row r="375" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A375" s="32"/>
       <c r="B375" s="6" t="s">
         <v>379</v>
       </c>
       <c r="C375" s="6"/>
       <c r="E375" s="6"/>
     </row>
-    <row r="376" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A376" s="27"/>
+    <row r="376" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A376" s="32"/>
       <c r="B376" s="6" t="s">
         <v>380</v>
       </c>
       <c r="C376" s="6"/>
       <c r="E376" s="6"/>
     </row>
-    <row r="377" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A377" s="27"/>
+    <row r="377" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A377" s="32"/>
       <c r="B377" s="6" t="s">
         <v>200</v>
       </c>
       <c r="C377" s="6"/>
       <c r="E377" s="6"/>
     </row>
-    <row r="378" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A378" s="27"/>
+    <row r="378" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A378" s="32"/>
       <c r="B378" s="6" t="s">
         <v>201</v>
       </c>
       <c r="C378" s="6"/>
       <c r="E378" s="6"/>
     </row>
-    <row r="379" spans="1:5" s="4" customFormat="1">
+    <row r="379" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B379" s="17"/>
       <c r="C379" s="17"/>
       <c r="E379" s="17"/>
@@ -9152,7 +9134,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="17" outlineLevel="1">
+    <row r="382" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A382" s="7" t="s">
         <v>7</v>
       </c>
@@ -9162,8 +9144,8 @@
       <c r="C382" s="6"/>
       <c r="E382" s="6"/>
     </row>
-    <row r="383" spans="1:5" ht="51" outlineLevel="1">
-      <c r="A383" s="27" t="s">
+    <row r="383" spans="1:5" ht="51" hidden="1" outlineLevel="1">
+      <c r="A383" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B383" s="24" t="s">
@@ -9172,15 +9154,15 @@
       <c r="C383" s="24"/>
       <c r="E383" s="6"/>
     </row>
-    <row r="384" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A384" s="27"/>
+    <row r="384" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A384" s="32"/>
       <c r="B384" s="6" t="s">
         <v>381</v>
       </c>
       <c r="C384" s="6"/>
       <c r="E384" s="6"/>
     </row>
-    <row r="385" spans="1:5" s="4" customFormat="1">
+    <row r="385" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B385" s="17"/>
       <c r="C385" s="17"/>
       <c r="E385" s="17"/>
@@ -9219,7 +9201,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="17" outlineLevel="1">
+    <row r="388" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A388" s="7" t="s">
         <v>7</v>
       </c>
@@ -9229,8 +9211,8 @@
       <c r="C388" s="6"/>
       <c r="E388" s="6"/>
     </row>
-    <row r="389" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A389" s="27" t="s">
+    <row r="389" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A389" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B389" s="24" t="s">
@@ -9239,15 +9221,15 @@
       <c r="C389" s="24"/>
       <c r="E389" s="6"/>
     </row>
-    <row r="390" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A390" s="27"/>
+    <row r="390" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A390" s="32"/>
       <c r="B390" s="6" t="s">
         <v>382</v>
       </c>
       <c r="C390" s="6"/>
       <c r="E390" s="6"/>
     </row>
-    <row r="391" spans="1:5" s="4" customFormat="1">
+    <row r="391" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B391" s="17"/>
       <c r="C391" s="17"/>
       <c r="E391" s="17"/>
@@ -9286,7 +9268,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="17" outlineLevel="1">
+    <row r="394" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A394" s="7" t="s">
         <v>7</v>
       </c>
@@ -9296,8 +9278,8 @@
       <c r="C394" s="6"/>
       <c r="E394" s="6"/>
     </row>
-    <row r="395" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A395" s="27" t="s">
+    <row r="395" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A395" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B395" s="24" t="s">
@@ -9306,15 +9288,15 @@
       <c r="C395" s="24"/>
       <c r="E395" s="6"/>
     </row>
-    <row r="396" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A396" s="27"/>
+    <row r="396" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A396" s="32"/>
       <c r="B396" s="6" t="s">
         <v>384</v>
       </c>
       <c r="C396" s="6"/>
       <c r="E396" s="6"/>
     </row>
-    <row r="397" spans="1:5" s="4" customFormat="1">
+    <row r="397" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B397" s="17"/>
       <c r="C397" s="17"/>
       <c r="E397" s="17"/>
@@ -9353,7 +9335,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="17" outlineLevel="1">
+    <row r="400" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A400" s="7" t="s">
         <v>7</v>
       </c>
@@ -9363,7 +9345,7 @@
       <c r="C400" s="6"/>
       <c r="E400" s="6"/>
     </row>
-    <row r="401" spans="1:5" ht="119" outlineLevel="1">
+    <row r="401" spans="1:5" ht="119" hidden="1" outlineLevel="1">
       <c r="A401" s="7" t="s">
         <v>9</v>
       </c>
@@ -9373,7 +9355,7 @@
       <c r="C401" s="6"/>
       <c r="E401" s="6"/>
     </row>
-    <row r="402" spans="1:5" s="4" customFormat="1">
+    <row r="402" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B402" s="17"/>
       <c r="C402" s="17"/>
       <c r="E402" s="17"/>
@@ -9412,7 +9394,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="17" outlineLevel="1">
+    <row r="405" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A405" s="7" t="s">
         <v>7</v>
       </c>
@@ -9422,8 +9404,8 @@
       <c r="C405" s="6"/>
       <c r="E405" s="6"/>
     </row>
-    <row r="406" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A406" s="27" t="s">
+    <row r="406" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A406" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B406" s="6" t="s">
@@ -9432,63 +9414,63 @@
       <c r="C406" s="6"/>
       <c r="E406" s="6"/>
     </row>
-    <row r="407" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A407" s="27"/>
+    <row r="407" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A407" s="32"/>
       <c r="B407" s="6" t="s">
         <v>216</v>
       </c>
       <c r="C407" s="6"/>
       <c r="E407" s="6"/>
     </row>
-    <row r="408" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A408" s="27"/>
+    <row r="408" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A408" s="32"/>
       <c r="B408" s="6" t="s">
         <v>389</v>
       </c>
       <c r="C408" s="6"/>
       <c r="E408" s="6"/>
     </row>
-    <row r="409" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A409" s="27"/>
+    <row r="409" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A409" s="32"/>
       <c r="B409" s="6" t="s">
         <v>217</v>
       </c>
       <c r="C409" s="6"/>
       <c r="E409" s="6"/>
     </row>
-    <row r="410" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A410" s="27"/>
+    <row r="410" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A410" s="32"/>
       <c r="B410" s="6" t="s">
         <v>390</v>
       </c>
       <c r="C410" s="6"/>
       <c r="E410" s="6"/>
     </row>
-    <row r="411" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A411" s="27"/>
+    <row r="411" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A411" s="32"/>
       <c r="B411" s="6" t="s">
         <v>391</v>
       </c>
       <c r="C411" s="6"/>
       <c r="E411" s="6"/>
     </row>
-    <row r="412" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A412" s="27"/>
+    <row r="412" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A412" s="32"/>
       <c r="B412" s="6" t="s">
         <v>218</v>
       </c>
       <c r="C412" s="6"/>
       <c r="E412" s="6"/>
     </row>
-    <row r="413" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A413" s="27"/>
+    <row r="413" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A413" s="32"/>
       <c r="B413" s="6" t="s">
         <v>219</v>
       </c>
       <c r="C413" s="6"/>
       <c r="E413" s="6"/>
     </row>
-    <row r="414" spans="1:5" s="4" customFormat="1">
+    <row r="414" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
       <c r="E414" s="17"/>
@@ -9527,7 +9509,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="17" outlineLevel="1">
+    <row r="417" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A417" s="7" t="s">
         <v>7</v>
       </c>
@@ -9537,8 +9519,8 @@
       <c r="C417" s="6"/>
       <c r="E417" s="6"/>
     </row>
-    <row r="418" spans="1:5" ht="68" outlineLevel="1">
-      <c r="A418" s="27" t="s">
+    <row r="418" spans="1:5" ht="68" hidden="1" outlineLevel="1">
+      <c r="A418" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B418" s="6" t="s">
@@ -9547,79 +9529,79 @@
       <c r="C418" s="6"/>
       <c r="E418" s="6"/>
     </row>
-    <row r="419" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A419" s="27"/>
+    <row r="419" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A419" s="32"/>
       <c r="B419" s="6" t="s">
         <v>394</v>
       </c>
       <c r="C419" s="6"/>
       <c r="E419" s="6"/>
     </row>
-    <row r="420" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A420" s="27"/>
+    <row r="420" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A420" s="32"/>
       <c r="B420" s="6" t="s">
         <v>221</v>
       </c>
       <c r="C420" s="6"/>
       <c r="E420" s="6"/>
     </row>
-    <row r="421" spans="1:5" ht="85" outlineLevel="1">
-      <c r="A421" s="27"/>
+    <row r="421" spans="1:5" ht="85" hidden="1" outlineLevel="1">
+      <c r="A421" s="32"/>
       <c r="B421" s="6" t="s">
         <v>395</v>
       </c>
       <c r="C421" s="6"/>
       <c r="E421" s="6"/>
     </row>
-    <row r="422" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A422" s="27"/>
+    <row r="422" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A422" s="32"/>
       <c r="B422" s="6" t="s">
         <v>217</v>
       </c>
       <c r="C422" s="6"/>
       <c r="E422" s="6"/>
     </row>
-    <row r="423" spans="1:5" ht="136" outlineLevel="1">
-      <c r="A423" s="27"/>
+    <row r="423" spans="1:5" ht="136" hidden="1" outlineLevel="1">
+      <c r="A423" s="32"/>
       <c r="B423" s="6" t="s">
         <v>396</v>
       </c>
       <c r="C423" s="6"/>
       <c r="E423" s="6"/>
     </row>
-    <row r="424" spans="1:5" ht="34" outlineLevel="1">
-      <c r="A424" s="27"/>
+    <row r="424" spans="1:5" ht="34" hidden="1" outlineLevel="1">
+      <c r="A424" s="32"/>
       <c r="B424" s="6" t="s">
         <v>222</v>
       </c>
       <c r="C424" s="6"/>
       <c r="E424" s="6"/>
     </row>
-    <row r="425" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A425" s="27"/>
+    <row r="425" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A425" s="32"/>
       <c r="B425" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C425" s="6"/>
       <c r="E425" s="6"/>
     </row>
-    <row r="426" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A426" s="27"/>
+    <row r="426" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A426" s="32"/>
       <c r="B426" s="6" t="s">
         <v>218</v>
       </c>
       <c r="C426" s="6"/>
       <c r="E426" s="6"/>
     </row>
-    <row r="427" spans="1:5" ht="17" outlineLevel="1">
-      <c r="A427" s="27"/>
+    <row r="427" spans="1:5" ht="17" hidden="1" outlineLevel="1">
+      <c r="A427" s="32"/>
       <c r="B427" s="6" t="s">
         <v>219</v>
       </c>
       <c r="C427" s="6"/>
       <c r="E427" s="6"/>
     </row>
-    <row r="428" spans="1:5" s="4" customFormat="1">
+    <row r="428" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B428" s="17"/>
       <c r="C428" s="17"/>
       <c r="E428" s="17"/>
@@ -9658,7 +9640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="17" outlineLevel="1">
+    <row r="431" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A431" s="7" t="s">
         <v>7</v>
       </c>
@@ -9668,7 +9650,7 @@
       <c r="C431" s="6"/>
       <c r="E431" s="6"/>
     </row>
-    <row r="432" spans="1:5" ht="34" outlineLevel="1">
+    <row r="432" spans="1:5" ht="34" hidden="1" outlineLevel="1">
       <c r="A432" s="7" t="s">
         <v>9</v>
       </c>
@@ -9678,7 +9660,7 @@
       <c r="C432" s="6"/>
       <c r="E432" s="6"/>
     </row>
-    <row r="433" spans="1:5" s="4" customFormat="1">
+    <row r="433" spans="1:5" s="4" customFormat="1" collapsed="1">
       <c r="B433" s="17"/>
       <c r="C433" s="17"/>
       <c r="E433" s="17"/>
@@ -9717,7 +9699,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="17" outlineLevel="1">
+    <row r="436" spans="1:5" ht="17" hidden="1" outlineLevel="1">
       <c r="A436" s="7" t="s">
         <v>7</v>
       </c>
@@ -9726,7 +9708,7 @@
       </c>
       <c r="C436" s="6"/>
     </row>
-    <row r="437" spans="1:5" ht="34" outlineLevel="1">
+    <row r="437" spans="1:5" ht="34" hidden="1" outlineLevel="1">
       <c r="A437" s="7" t="s">
         <v>9</v>
       </c>
@@ -9735,46 +9717,16 @@
       </c>
       <c r="C437" s="6"/>
     </row>
-    <row r="438" spans="1:5" s="35" customFormat="1"/>
-    <row r="439" spans="1:5" s="35" customFormat="1" ht="17">
-      <c r="B439" s="35" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" s="35" customFormat="1"/>
+    <row r="438" spans="1:5" s="31" customFormat="1" collapsed="1"/>
+    <row r="439" spans="1:5" s="31" customFormat="1" ht="17">
+      <c r="B439" s="31" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" s="31" customFormat="1"/>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A145:A156"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="A170:A175"/>
-    <mergeCell ref="A180:A186"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="A296:A300"/>
-    <mergeCell ref="A305:A316"/>
-    <mergeCell ref="A197:A224"/>
-    <mergeCell ref="A229:A234"/>
-    <mergeCell ref="A249:A255"/>
-    <mergeCell ref="A260:A262"/>
+    <mergeCell ref="C43:C45"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A406:A413"/>
     <mergeCell ref="A418:A427"/>
@@ -9791,7 +9743,37 @@
     <mergeCell ref="A352:A357"/>
     <mergeCell ref="A266:A268"/>
     <mergeCell ref="A274:A275"/>
-    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="A296:A300"/>
+    <mergeCell ref="A305:A316"/>
+    <mergeCell ref="A197:A224"/>
+    <mergeCell ref="A229:A234"/>
+    <mergeCell ref="A249:A255"/>
+    <mergeCell ref="A260:A262"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A145:A156"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="A170:A175"/>
+    <mergeCell ref="A180:A186"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A77:A83"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B78" r:id="rId1" location="Data_Representation" display="https://www.ibiblio.org/apollo/assembly_language_manual.html - Data_Representation" xr:uid="{87D41E35-AF18-A648-AF1C-EE1C08DC8AC0}"/>
